--- a/elementStats.xlsx
+++ b/elementStats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,106 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Percentage 5 star</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Percentage 4 star</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Percentage Male</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Percentage Female</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75</v>
+      </c>
+      <c r="C9" t="n">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
